--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3363121.018468228</v>
+        <v>3360785.907266247</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.95245435214135</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>157.6945796405423</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.1353507548617</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>149.374591199866</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882112</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>56.01246561959125</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,13 +1108,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>79.86679839988601</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>186.6141597285334</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>54.26003672910096</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.0235632167813</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505416</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242264</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>64.80049431059821</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
-        <v>6.434538210426727</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>166.5451136812784</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>185.4706806359743</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>65.25773758188321</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235233238</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>210.7001060820193</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>51.36569740310382</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.4116053749673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>185.4706806359743</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>126.4643665640119</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>46.13809394730882</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>143.2091541404069</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>797.0848490996759</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C2" t="n">
-        <v>428.1223321592641</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D2" t="n">
-        <v>69.85663355251364</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1947.289779400689</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1573.824021139609</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1183.684689163798</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.0080784229705</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4522,16 +4522,16 @@
         <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329318</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>927.7205539329318</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>927.7205539329318</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>927.7205539329318</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>993.7429799877395</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>624.7804630473279</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>624.7804630473279</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926623</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926623</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190803</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190803</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>2184.059060190803</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051861</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051861</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.9439354791607</v>
+        <v>444.7476822882286</v>
       </c>
       <c r="C7" t="n">
-        <v>623.9439354791607</v>
+        <v>275.8114993603217</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>275.8114993603217</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429093</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.581951207418</v>
+        <v>1216.838891429093</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.581951207418</v>
+        <v>962.1544032232065</v>
       </c>
       <c r="W7" t="n">
-        <v>1033.581951207418</v>
+        <v>672.7372331862459</v>
       </c>
       <c r="X7" t="n">
-        <v>805.5924003094004</v>
+        <v>444.7476822882286</v>
       </c>
       <c r="Y7" t="n">
-        <v>805.5924003094004</v>
+        <v>444.7476822882286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3137.106670368228</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3137.106670368228</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1872.48643018031</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1617.801941974423</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1328.384771937462</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1100.395221039445</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.6026418959145</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5063,10 +5063,10 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
@@ -5282,10 +5282,10 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1017.232257523796</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>848.2960745958891</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>698.1794351835533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>550.2663416011602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171305</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892237</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768879</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2445.740023695907</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1097.958364892466</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
         <v>175.9033664000583</v>
@@ -6142,7 +6142,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1368.15426255076</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1920.063992790047</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2343.687142285115</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>763.7541388327652</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>613.6374994204294</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7251,16 +7251,16 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.5010142286973</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>748.5648313007904</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>598.4481918884546</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>450.5350983060615</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>303.6451508081511</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1508.305175991783</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O3" t="n">
-        <v>280.1079373569283</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282454</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-6.439667049203219e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.2232578818465</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440145</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>80.62055371233303</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
-        <v>139.9994244361424</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7017074173494109</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556018</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>40.23897475306288</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>221.2652607547078</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>15.00954930701781</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.00954930701784</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>24.02235727160183</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>40.23897475306288</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>39.05977172825691</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.1277423712567</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26074,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403384</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769833</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744224</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744279</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744259</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.25639174426</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744266</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744257</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744242</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744257</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
+        <v>8727.256391744235</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-604274.1001148931</v>
+        <v>-604274.1001148929</v>
       </c>
       <c r="C6" t="n">
-        <v>510477.6834610265</v>
+        <v>510477.6834610273</v>
       </c>
       <c r="D6" t="n">
-        <v>350462.2207130289</v>
+        <v>350462.2207130279</v>
       </c>
       <c r="E6" t="n">
-        <v>291169.6916979979</v>
+        <v>291134.9537725628</v>
       </c>
       <c r="F6" t="n">
-        <v>616582.1535053542</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="G6" t="n">
-        <v>616582.153505354</v>
+        <v>616547.415579918</v>
       </c>
       <c r="H6" t="n">
-        <v>616582.1535053542</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="I6" t="n">
-        <v>616582.1535053542</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="J6" t="n">
-        <v>448976.9756953715</v>
+        <v>448942.2377699359</v>
       </c>
       <c r="K6" t="n">
-        <v>616582.1535053542</v>
+        <v>616547.4155799181</v>
       </c>
       <c r="L6" t="n">
-        <v>568288.1834971632</v>
+        <v>568253.4455717274</v>
       </c>
       <c r="M6" t="n">
-        <v>531527.1255698421</v>
+        <v>531492.3876444062</v>
       </c>
       <c r="N6" t="n">
-        <v>616582.1535053541</v>
+        <v>616547.4155799182</v>
       </c>
       <c r="O6" t="n">
-        <v>616582.1535053538</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="P6" t="n">
-        <v>616582.1535053542</v>
+        <v>616547.4155799182</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.9779157201204</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>191.5463890768707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.69662942707558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>232.5557788723957</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902578</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.42149702697793</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>206.3603557213146</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>141.1380987416015</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>231.9518014765119</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-7.576535426419379e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,25 +31841,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>550.5977692975237</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32002,7 +32002,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
         <v>965.6463440175677</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206127</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32479,7 +32479,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32546,22 +32546,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.3773391483997</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,19 +32783,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>516.6542155585828</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>491.1355220041054</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>351.4708102230524</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33494,10 +33494,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33506,10 +33506,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>479.6444630806902</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33731,10 +33731,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9244589488883</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067222</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175677</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>173.3851399586643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,13 +34784,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O3" t="n">
-        <v>615.5326193530514</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.0987427660954</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>584.5244463807089</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
         <v>479.4543240367771</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>416.6233618831934</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789214</v>
@@ -35650,7 +35650,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.300110790295</v>
@@ -35662,7 +35662,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
         <v>735.300110790295</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>374.5201816365645</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,16 +36680,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>349.0014880820871</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.4890361370308</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,10 +37154,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>337.5104291586719</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789214</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>226.582746865555</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316317</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,10 +37628,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
-        <v>31.25110603664601</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
